--- a/ComputedResults/Area/SixBorderVowels/Norwagian/MFCC/Mother/6_bordervowels_mfcc_no_IDS_M.xlsx
+++ b/ComputedResults/Area/SixBorderVowels/Norwagian/MFCC/Mother/6_bordervowels_mfcc_no_IDS_M.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1859077.517413792</v>
+        <v>1859078</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3940979.540867033</v>
+        <v>3940980</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2515407.384786018</v>
+        <v>2515407</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>990302.5694250187</v>
+        <v>990303</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2414307.014394805</v>
+        <v>2414307</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>294930.3721850307</v>
+        <v>294930</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2186922.821324194</v>
+        <v>2186923</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2932235.200952977</v>
+        <v>2932235</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2470174.194704421</v>
+        <v>2470174</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2845273.581012659</v>
+        <v>2845274</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1628430.972954781</v>
+        <v>1628431</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2224382.778348376</v>
+        <v>2224383</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7321348.624208547</v>
+        <v>7321349</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2286795.249282707</v>
+        <v>2286795</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2486626.389358867</v>
+        <v>2486626</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5884520.679260584</v>
+        <v>5884521</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5154855.486391556</v>
+        <v>5154855</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3359238.809196679</v>
+        <v>3359239</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2794360.763459106</v>
+        <v>2794361</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3326959.134523707</v>
+        <v>3326959</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6803179.725764718</v>
+        <v>6803180</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3910267.787563035</v>
+        <v>3910268</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3193319.914790806</v>
+        <v>3193320</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3129809.371781165</v>
+        <v>3129809</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1732552.324409581</v>
+        <v>1732552</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5385175.524182484</v>
+        <v>5385176</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5883346.782311453</v>
+        <v>5883347</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3302716.693833657</v>
+        <v>3302717</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5242932.665951484</v>
+        <v>5242933</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1596522.043637629</v>
+        <v>1596522</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3199087.758304083</v>
+        <v>3199088</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2021125.927448252</v>
+        <v>2021126</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3019555.778206002</v>
+        <v>3019556</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2091448.860486862</v>
+        <v>2091449</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2332276.281401525</v>
+        <v>2332276</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2829486.314940701</v>
+        <v>2829486</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2722303.589598687</v>
+        <v>2722304</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2044118.075387559</v>
+        <v>2044118</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3175900.868738947</v>
+        <v>3175901</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>759078.0639252338</v>
+        <v>759078</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>575475.3690863785</v>
+        <v>575475</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>790366.2590738012</v>
+        <v>790366</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>869476.4565347706</v>
+        <v>869476</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2225923.111230814</v>
+        <v>2225923</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2831459.256790679</v>
+        <v>2831459</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>7128296.110640736</v>
+        <v>7128296</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6244296.71708589</v>
+        <v>6244297</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1004370.120028665</v>
+        <v>1004370</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2541777.880603611</v>
+        <v>2541778</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4153404.03354075</v>
+        <v>4153404</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4948584.121191895</v>
+        <v>4948584</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2884751.107888437</v>
+        <v>2884751</v>
       </c>
     </row>
     <row r="54">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1100464.675508508</v>
+        <v>1100465</v>
       </c>
     </row>
     <row r="55">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4773007.78326344</v>
+        <v>4773008</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1793892.391261729</v>
+        <v>1793892</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1467686.411589816</v>
+        <v>1467686</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1908581.065182745</v>
+        <v>1908581</v>
       </c>
     </row>
     <row r="59">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1480527.594592254</v>
+        <v>1480528</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2000145.494371582</v>
+        <v>2000145</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3344720.269076305</v>
+        <v>3344720</v>
       </c>
     </row>
     <row r="62">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>6537742.529363086</v>
+        <v>6537743</v>
       </c>
     </row>
     <row r="63">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1276601.299028781</v>
+        <v>1276601</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>8056502.216875982</v>
+        <v>8056502</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1832747.628974589</v>
+        <v>1832748</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1486104.627052153</v>
+        <v>1486105</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2271756.333768817</v>
+        <v>2271756</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>899847.078425054</v>
+        <v>899847</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3675324.337299912</v>
+        <v>3675324</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6150199.502855635</v>
+        <v>6150200</v>
       </c>
     </row>
     <row r="71">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>18893382.641443</v>
+        <v>18893383</v>
       </c>
     </row>
     <row r="72">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2625926.057137589</v>
+        <v>2625926</v>
       </c>
     </row>
     <row r="73">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>7740824.229809357</v>
+        <v>7740824</v>
       </c>
     </row>
     <row r="74">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2812794.970373291</v>
+        <v>2812795</v>
       </c>
     </row>
     <row r="75">
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3845576.078484085</v>
+        <v>3845576</v>
       </c>
     </row>
     <row r="76">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5118900.392261423</v>
+        <v>5118900</v>
       </c>
     </row>
     <row r="77">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5794718.451904527</v>
+        <v>5794718</v>
       </c>
     </row>
     <row r="78">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1467677.373077587</v>
+        <v>1467677</v>
       </c>
     </row>
     <row r="79">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2760106.747264368</v>
+        <v>2760107</v>
       </c>
     </row>
     <row r="80">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2531612.623561735</v>
+        <v>2531613</v>
       </c>
     </row>
     <row r="81">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2222898.446851755</v>
+        <v>2222898</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2595995.936594109</v>
+        <v>2595996</v>
       </c>
     </row>
     <row r="83">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1839815.159999595</v>
+        <v>1839815</v>
       </c>
     </row>
     <row r="84">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2657699.469052363</v>
+        <v>2657699</v>
       </c>
     </row>
     <row r="85">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3608073.758522746</v>
+        <v>3608074</v>
       </c>
     </row>
     <row r="86">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4211448.688996541</v>
+        <v>4211449</v>
       </c>
     </row>
     <row r="87">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4017010.127567489</v>
+        <v>4017010</v>
       </c>
     </row>
     <row r="88">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3640425.979452647</v>
+        <v>3640426</v>
       </c>
     </row>
     <row r="89">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5166068.062678178</v>
+        <v>5166068</v>
       </c>
     </row>
     <row r="90">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1370113.611986191</v>
+        <v>1370114</v>
       </c>
     </row>
     <row r="91">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2823044.863187521</v>
+        <v>2823045</v>
       </c>
     </row>
     <row r="92">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1656049.210107327</v>
+        <v>1656049</v>
       </c>
     </row>
     <row r="93">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1965181.909641807</v>
+        <v>1965182</v>
       </c>
     </row>
     <row r="94">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>8720660.417588793</v>
+        <v>8720660</v>
       </c>
     </row>
     <row r="95">
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2564682.481837296</v>
+        <v>2564682</v>
       </c>
     </row>
     <row r="96">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>992203.0124204902</v>
+        <v>992203</v>
       </c>
     </row>
     <row r="97">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1651924.801167803</v>
+        <v>1651925</v>
       </c>
     </row>
     <row r="98">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2558977.927003221</v>
+        <v>2558978</v>
       </c>
     </row>
     <row r="99">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4606761.838261019</v>
+        <v>4606762</v>
       </c>
     </row>
     <row r="100">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3951205.219043255</v>
+        <v>3951205</v>
       </c>
     </row>
     <row r="101">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>8671642.47339543</v>
+        <v>8671642</v>
       </c>
     </row>
     <row r="102">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3134827.3896961</v>
+        <v>3134827</v>
       </c>
     </row>
     <row r="103">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>7128196.588937145</v>
+        <v>7128197</v>
       </c>
     </row>
     <row r="104">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5014914.371289808</v>
+        <v>5014914</v>
       </c>
     </row>
     <row r="105">
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5691076.348171917</v>
+        <v>5691076</v>
       </c>
     </row>
     <row r="106">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1535677.889792422</v>
+        <v>1535678</v>
       </c>
     </row>
     <row r="107">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1816114.93945459</v>
+        <v>1816115</v>
       </c>
     </row>
     <row r="108">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>615630.4655326422</v>
+        <v>615630</v>
       </c>
     </row>
     <row r="109">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2103678.919222294</v>
+        <v>2103679</v>
       </c>
     </row>
     <row r="110">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2562977.207303507</v>
+        <v>2562977</v>
       </c>
     </row>
     <row r="111">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1622903.652623725</v>
+        <v>1622904</v>
       </c>
     </row>
     <row r="112">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>688626.6774698972</v>
+        <v>688627</v>
       </c>
     </row>
     <row r="113">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3293179.186470933</v>
+        <v>3293179</v>
       </c>
     </row>
     <row r="114">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2713529.278821462</v>
+        <v>2713529</v>
       </c>
     </row>
     <row r="115">
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1454220.146719198</v>
+        <v>1454220</v>
       </c>
     </row>
     <row r="116">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>6747451.364061577</v>
+        <v>6747451</v>
       </c>
     </row>
     <row r="117">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>4227897.684036232</v>
+        <v>4227898</v>
       </c>
     </row>
     <row r="118">
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>720986.852103674</v>
+        <v>720987</v>
       </c>
     </row>
     <row r="119">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1148303.910206008</v>
+        <v>1148304</v>
       </c>
     </row>
     <row r="120">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2184146.980733947</v>
+        <v>2184147</v>
       </c>
     </row>
     <row r="121">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>3051038.109370551</v>
+        <v>3051038</v>
       </c>
     </row>
     <row r="122">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>8479965.544314947</v>
+        <v>8479966</v>
       </c>
     </row>
     <row r="123">
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>6580405.616785292</v>
+        <v>6580406</v>
       </c>
     </row>
     <row r="124">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2026196.884686072</v>
+        <v>2026197</v>
       </c>
     </row>
     <row r="125">
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5204140.442912166</v>
+        <v>5204140</v>
       </c>
     </row>
     <row r="126">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>5590324.699349962</v>
+        <v>5590325</v>
       </c>
     </row>
     <row r="127">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3230810.559070903</v>
+        <v>3230811</v>
       </c>
     </row>
     <row r="128">
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>2515707.039211723</v>
+        <v>2515707</v>
       </c>
     </row>
     <row r="129">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1845002.863888674</v>
+        <v>1845003</v>
       </c>
     </row>
     <row r="130">
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>4763175.388289085</v>
+        <v>4763175</v>
       </c>
     </row>
     <row r="131">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1677191.064677858</v>
+        <v>1677191</v>
       </c>
     </row>
     <row r="132">
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3154243.246415459</v>
+        <v>3154243</v>
       </c>
     </row>
     <row r="133">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3536585.070757658</v>
+        <v>3536585</v>
       </c>
     </row>
     <row r="134">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>5816771.500116496</v>
+        <v>5816772</v>
       </c>
     </row>
     <row r="135">
@@ -2864,7 +2864,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2372956.903181491</v>
+        <v>2372957</v>
       </c>
     </row>
     <row r="136">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>5322101.532588504</v>
+        <v>5322102</v>
       </c>
     </row>
     <row r="137">
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>5936900.880708382</v>
+        <v>5936901</v>
       </c>
     </row>
     <row r="138">
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2330343.939641329</v>
+        <v>2330344</v>
       </c>
     </row>
     <row r="139">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>5139682.216122708</v>
+        <v>5139682</v>
       </c>
     </row>
     <row r="140">
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>4038524.025256098</v>
+        <v>4038524</v>
       </c>
     </row>
     <row r="141">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>5972201.554657097</v>
+        <v>5972202</v>
       </c>
     </row>
     <row r="142">
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2009931.954157336</v>
+        <v>2009932</v>
       </c>
     </row>
     <row r="143">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>4859271.893796919</v>
+        <v>4859272</v>
       </c>
     </row>
     <row r="144">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>2072966.4592541</v>
+        <v>2072966</v>
       </c>
     </row>
     <row r="145">
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2466608.261316157</v>
+        <v>2466608</v>
       </c>
     </row>
     <row r="146">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2530408.132741001</v>
+        <v>2530408</v>
       </c>
     </row>
     <row r="147">
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3336755.559681221</v>
+        <v>3336756</v>
       </c>
     </row>
     <row r="148">
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3905712.414193106</v>
+        <v>3905712</v>
       </c>
     </row>
     <row r="149">
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1974135.066622824</v>
+        <v>1974135</v>
       </c>
     </row>
     <row r="150">
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2440354.16093561</v>
+        <v>2440354</v>
       </c>
     </row>
     <row r="151">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2385091.794997368</v>
+        <v>2385092</v>
       </c>
     </row>
     <row r="152">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2106948.84901749</v>
+        <v>2106949</v>
       </c>
     </row>
     <row r="153">
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2298855.844795473</v>
+        <v>2298856</v>
       </c>
     </row>
     <row r="154">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1759888.396265039</v>
+        <v>1759888</v>
       </c>
     </row>
     <row r="155">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2475664.697911536</v>
+        <v>2475665</v>
       </c>
     </row>
     <row r="156">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>3881210.570361194</v>
+        <v>3881211</v>
       </c>
     </row>
     <row r="157">
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>6607480.396520875</v>
+        <v>6607480</v>
       </c>
     </row>
     <row r="158">
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1981455.549017283</v>
+        <v>1981456</v>
       </c>
     </row>
     <row r="159">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1587521.156494999</v>
+        <v>1587521</v>
       </c>
     </row>
     <row r="160">
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1274907.616122623</v>
+        <v>1274908</v>
       </c>
     </row>
     <row r="161">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1787802.309816118</v>
+        <v>1787802</v>
       </c>
     </row>
     <row r="162">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>793102.4799060696</v>
+        <v>793102</v>
       </c>
     </row>
     <row r="163">
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>5324824.276269627</v>
+        <v>5324824</v>
       </c>
     </row>
     <row r="164">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>4760247.500622213</v>
+        <v>4760248</v>
       </c>
     </row>
     <row r="165">
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2165485.291148093</v>
+        <v>2165485</v>
       </c>
     </row>
     <row r="166">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>3897959.601342352</v>
+        <v>3897960</v>
       </c>
     </row>
     <row r="167">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1600221.765742727</v>
+        <v>1600222</v>
       </c>
     </row>
     <row r="168">
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2313385.01168139</v>
+        <v>2313385</v>
       </c>
     </row>
     <row r="169">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1596863.867063433</v>
+        <v>1596864</v>
       </c>
     </row>
     <row r="170">
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3605178.638353202</v>
+        <v>3605179</v>
       </c>
     </row>
     <row r="171">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1089989.898396005</v>
+        <v>1089990</v>
       </c>
     </row>
     <row r="172">
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2438309.553403364</v>
+        <v>2438310</v>
       </c>
     </row>
     <row r="173">
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>3164933.629198597</v>
+        <v>3164934</v>
       </c>
     </row>
     <row r="174">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>3937886.74054496</v>
+        <v>3937887</v>
       </c>
     </row>
     <row r="175">
@@ -3584,7 +3584,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2385378.81454955</v>
+        <v>2385379</v>
       </c>
     </row>
     <row r="176">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>3005149.410928775</v>
+        <v>3005149</v>
       </c>
     </row>
     <row r="177">
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>3360399.813017871</v>
+        <v>3360400</v>
       </c>
     </row>
     <row r="178">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2600251.032659021</v>
+        <v>2600251</v>
       </c>
     </row>
     <row r="179">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1849349.964524969</v>
+        <v>1849350</v>
       </c>
     </row>
     <row r="180">
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1244917.65186506</v>
+        <v>1244918</v>
       </c>
     </row>
     <row r="181">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>3100196.57797728</v>
+        <v>3100197</v>
       </c>
     </row>
     <row r="182">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>3118378.344014911</v>
+        <v>3118378</v>
       </c>
     </row>
     <row r="183">
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3450850.826273781</v>
+        <v>3450851</v>
       </c>
     </row>
     <row r="184">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2520782.593798798</v>
+        <v>2520783</v>
       </c>
     </row>
     <row r="185">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>2422775.768488056</v>
+        <v>2422776</v>
       </c>
     </row>
     <row r="186">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2583204.234415422</v>
+        <v>2583204</v>
       </c>
     </row>
     <row r="187">
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>4422174.148636366</v>
+        <v>4422174</v>
       </c>
     </row>
     <row r="188">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>5629607.424009722</v>
+        <v>5629607</v>
       </c>
     </row>
     <row r="189">
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1831493.332057002</v>
+        <v>1831493</v>
       </c>
     </row>
     <row r="190">
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>3158621.688280161</v>
+        <v>3158622</v>
       </c>
     </row>
     <row r="191">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2035505.685369125</v>
+        <v>2035506</v>
       </c>
     </row>
     <row r="192">
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>2475082.74349477</v>
+        <v>2475083</v>
       </c>
     </row>
     <row r="193">
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>5029567.776084587</v>
+        <v>5029568</v>
       </c>
     </row>
     <row r="194">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>4034032.687095243</v>
+        <v>4034033</v>
       </c>
     </row>
     <row r="195">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2893405.185757047</v>
+        <v>2893405</v>
       </c>
     </row>
     <row r="196">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>996703.5728239703</v>
+        <v>996704</v>
       </c>
     </row>
     <row r="197">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1324917.399830511</v>
+        <v>1324917</v>
       </c>
     </row>
     <row r="198">
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2858314.161942357</v>
+        <v>2858314</v>
       </c>
     </row>
     <row r="199">
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2094205.591779976</v>
+        <v>2094206</v>
       </c>
     </row>
     <row r="200">
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1379885.220172165</v>
+        <v>1379885</v>
       </c>
     </row>
   </sheetData>
